--- a/Produtos Novo.xlsx
+++ b/Produtos Novo.xlsx
@@ -486,12 +486,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>R$5.10</t>
+          <t>R$5.15</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>R$5095.25</t>
+          <t>R$5148.65</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -499,7 +499,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>R$7133.35</t>
+          <t>R$7208.11</t>
         </is>
       </c>
     </row>
@@ -519,12 +519,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>R$5.51</t>
+          <t>R$5.57</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>R$24810.74</t>
+          <t>R$25061.40</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -532,7 +532,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>R$49621.47</t>
+          <t>R$50122.80</t>
         </is>
       </c>
     </row>
@@ -552,12 +552,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>R$5.10</t>
+          <t>R$5.15</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>R$4585.72</t>
+          <t>R$4633.78</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -565,7 +565,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>R$7795.72</t>
+          <t>R$7877.42</t>
         </is>
       </c>
     </row>
@@ -585,12 +585,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>R$5.10</t>
+          <t>R$5.15</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>R$4071.14</t>
+          <t>R$4113.81</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -598,7 +598,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>R$6920.95</t>
+          <t>R$6993.48</t>
         </is>
       </c>
     </row>
@@ -618,12 +618,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>R$5.51</t>
+          <t>R$5.57</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>R$16540.49</t>
+          <t>R$16707.60</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -631,7 +631,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>R$31426.93</t>
+          <t>R$31744.44</t>
         </is>
       </c>
     </row>
@@ -651,12 +651,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>R$5.10</t>
+          <t>R$5.15</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>R$2448.19</t>
+          <t>R$2473.85</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -664,7 +664,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>R$4896.38</t>
+          <t>R$4947.69</t>
         </is>
       </c>
     </row>
@@ -684,12 +684,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>R$314.65</t>
+          <t>R$317.52</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>R$6293.00</t>
+          <t>R$6350.40</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -697,7 +697,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>R$7236.95</t>
+          <t>R$7302.96</t>
         </is>
       </c>
     </row>
